--- a/docs/laby_chiffres.xlsx
+++ b/docs/laby_chiffres.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dudude\Desktop\Master\HostProject\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D32C6B81-F19A-479B-A346-78EEE0CA6019}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{093C7A8F-7061-40AA-AC22-FDB38399D0CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{1BCB125D-F0EB-4381-9233-313C086E05FD}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{1BCB125D-F0EB-4381-9233-313C086E05FD}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,19 +36,22 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="3">
   <si>
     <t>O</t>
   </si>
   <si>
     <t>X</t>
   </si>
+  <si>
+    <t>⬤</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -64,13 +67,47 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="5"/>
+      <color rgb="FF373637"/>
+      <name val="Source Sans Pro"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="5"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="5"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="5"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -80,6 +117,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -93,11 +136,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom/>
@@ -106,7 +149,7 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom/>
@@ -114,17 +157,17 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right/>
@@ -134,7 +177,7 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
@@ -142,12 +185,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right/>
       <top/>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -156,18 +199,18 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -176,46 +219,88 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -530,318 +615,882 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B1868C7-FDB9-431D-824C-5A1A0C19715E}">
-  <dimension ref="M10:AL26"/>
+  <dimension ref="K8:AL29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="AQ14" sqref="AQ14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="W19" sqref="W19:AF28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="2.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="5.88671875" defaultRowHeight="32.4" customHeight="1" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="10" spans="13:38" x14ac:dyDescent="0.3">
-      <c r="M10" s="10"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="8"/>
-      <c r="Q10" s="8"/>
-      <c r="R10" s="8"/>
-      <c r="S10" s="8"/>
-      <c r="T10" s="9"/>
-      <c r="X10" s="10"/>
-      <c r="Y10" s="8"/>
-      <c r="Z10" s="19"/>
-      <c r="AA10" s="19"/>
-      <c r="AB10" s="19"/>
-      <c r="AC10" s="19"/>
-      <c r="AD10" s="19"/>
-      <c r="AE10" s="9"/>
-    </row>
-    <row r="11" spans="13:38" x14ac:dyDescent="0.3">
-      <c r="M11" s="6"/>
-      <c r="N11" s="17" t="s">
+    <row r="8" spans="11:38" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
+      <c r="X8" s="2"/>
+      <c r="Y8" s="2"/>
+      <c r="Z8" s="2"/>
+      <c r="AA8" s="2"/>
+      <c r="AB8" s="2"/>
+      <c r="AC8" s="2"/>
+      <c r="AD8" s="2"/>
+      <c r="AE8" s="2"/>
+      <c r="AF8" s="2"/>
+      <c r="AG8" s="2"/>
+      <c r="AH8" s="2"/>
+    </row>
+    <row r="9" spans="11:38" ht="32.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="K9" s="2"/>
+      <c r="L9" s="3">
+        <v>1</v>
+      </c>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="2"/>
+      <c r="W9" s="3">
+        <v>2</v>
+      </c>
+      <c r="X9" s="5"/>
+      <c r="Y9" s="5"/>
+      <c r="Z9" s="5"/>
+      <c r="AA9" s="5"/>
+      <c r="AB9" s="5"/>
+      <c r="AC9" s="5"/>
+      <c r="AD9" s="5"/>
+      <c r="AE9" s="5"/>
+      <c r="AF9" s="2"/>
+      <c r="AG9" s="2"/>
+      <c r="AH9" s="2"/>
+    </row>
+    <row r="10" spans="11:38" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K10" s="2"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="8"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="2"/>
+      <c r="W10" s="5"/>
+      <c r="X10" s="19"/>
+      <c r="Y10" s="20"/>
+      <c r="Z10" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA10" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB10" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC10" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD10" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE10" s="22"/>
+      <c r="AF10" s="2"/>
+      <c r="AG10" s="2"/>
+      <c r="AH10" s="2"/>
+    </row>
+    <row r="11" spans="11:38" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K11" s="2"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4"/>
-      <c r="R11" s="4"/>
-      <c r="S11" s="1"/>
-      <c r="T11" s="2"/>
-      <c r="X11" s="6"/>
-      <c r="Y11" s="17"/>
-      <c r="Z11" s="4"/>
-      <c r="AA11" s="5"/>
-      <c r="AB11" s="4"/>
-      <c r="AC11" s="5"/>
-      <c r="AD11" s="16" t="s">
+      <c r="O11" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="P11" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q11" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="R11" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="S11" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="T11" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="U11" s="2"/>
+      <c r="V11" s="2"/>
+      <c r="W11" s="5"/>
+      <c r="X11" s="23"/>
+      <c r="Y11" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z11" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA11" s="24"/>
+      <c r="AB11" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC11" s="24"/>
+      <c r="AD11" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="AE11" s="7"/>
-    </row>
-    <row r="12" spans="13:38" x14ac:dyDescent="0.3">
-      <c r="M12" s="6"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="5"/>
-      <c r="R12" s="4"/>
-      <c r="S12" s="1"/>
-      <c r="T12" s="7"/>
-      <c r="X12" s="14"/>
-      <c r="Y12" s="4"/>
-      <c r="Z12" s="5"/>
-      <c r="AA12" s="4"/>
-      <c r="AB12" s="5"/>
-      <c r="AC12" s="5"/>
-      <c r="AD12" s="5"/>
-      <c r="AE12" s="21"/>
-    </row>
-    <row r="13" spans="13:38" x14ac:dyDescent="0.3">
-      <c r="M13" s="6"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="4"/>
-      <c r="S13" s="1"/>
-      <c r="T13" s="2"/>
-      <c r="X13" s="6"/>
-      <c r="Y13" s="4"/>
-      <c r="Z13" s="5"/>
-      <c r="AA13" s="4"/>
-      <c r="AB13" s="4"/>
-      <c r="AC13" s="4"/>
-      <c r="AD13" s="4"/>
-      <c r="AE13" s="21"/>
-      <c r="AL13" s="15"/>
-    </row>
-    <row r="14" spans="13:38" x14ac:dyDescent="0.3">
-      <c r="M14" s="14"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="4"/>
-      <c r="S14" s="5"/>
-      <c r="T14" s="2"/>
-      <c r="X14" s="14"/>
-      <c r="Y14" s="4"/>
-      <c r="Z14" s="5"/>
-      <c r="AA14" s="16" t="s">
+      <c r="AE11" s="25"/>
+      <c r="AF11" s="2"/>
+      <c r="AG11" s="2"/>
+      <c r="AH11" s="2"/>
+    </row>
+    <row r="12" spans="11:38" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K12" s="2"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="S12" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="T12" s="13"/>
+      <c r="U12" s="2"/>
+      <c r="V12" s="2"/>
+      <c r="W12" s="5"/>
+      <c r="X12" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y12" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z12" s="24"/>
+      <c r="AA12" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB12" s="24"/>
+      <c r="AC12" s="24"/>
+      <c r="AD12" s="24"/>
+      <c r="AE12" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF12" s="2"/>
+      <c r="AG12" s="2"/>
+      <c r="AH12" s="2"/>
+    </row>
+    <row r="13" spans="11:38" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K13" s="2"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="O13" s="12"/>
+      <c r="P13" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q13" s="12"/>
+      <c r="R13" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="S13" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="T13" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="U13" s="2"/>
+      <c r="V13" s="2"/>
+      <c r="W13" s="5"/>
+      <c r="X13" s="23"/>
+      <c r="Y13" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z13" s="24"/>
+      <c r="AA13" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB13" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC13" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD13" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE13" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF13" s="2"/>
+      <c r="AG13" s="2"/>
+      <c r="AH13" s="2"/>
+      <c r="AL13" s="1"/>
+    </row>
+    <row r="14" spans="11:38" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K14" s="2"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="N14" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="O14" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="P14" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q14" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="R14" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="S14" s="12"/>
+      <c r="T14" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="U14" s="2"/>
+      <c r="V14" s="2"/>
+      <c r="W14" s="5"/>
+      <c r="X14" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y14" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z14" s="24"/>
+      <c r="AA14" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="AB14" s="5"/>
-      <c r="AC14" s="5"/>
-      <c r="AD14" s="4"/>
-      <c r="AE14" s="7"/>
-    </row>
-    <row r="15" spans="13:38" x14ac:dyDescent="0.3">
-      <c r="M15" s="14"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="5"/>
-      <c r="P15" s="5"/>
-      <c r="Q15" s="5"/>
-      <c r="R15" s="5"/>
-      <c r="S15" s="1"/>
-      <c r="T15" s="7"/>
-      <c r="X15" s="14"/>
-      <c r="Y15" s="4"/>
-      <c r="Z15" s="4"/>
-      <c r="AA15" s="5"/>
-      <c r="AB15" s="4"/>
-      <c r="AC15" s="5"/>
-      <c r="AD15" s="4"/>
-      <c r="AE15" s="7"/>
-    </row>
-    <row r="16" spans="13:38" x14ac:dyDescent="0.3">
-      <c r="M16" s="6"/>
-      <c r="N16" s="4"/>
-      <c r="O16" s="4"/>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="4"/>
-      <c r="S16" s="16" t="s">
+      <c r="AB14" s="24"/>
+      <c r="AC14" s="24"/>
+      <c r="AD14" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE14" s="25"/>
+      <c r="AF14" s="2"/>
+      <c r="AG14" s="2"/>
+      <c r="AH14" s="2"/>
+    </row>
+    <row r="15" spans="11:38" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K15" s="2"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="N15" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="O15" s="12"/>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="12"/>
+      <c r="S15" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="T15" s="13"/>
+      <c r="U15" s="2"/>
+      <c r="V15" s="2"/>
+      <c r="W15" s="5"/>
+      <c r="X15" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y15" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z15" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA15" s="24"/>
+      <c r="AB15" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC15" s="24"/>
+      <c r="AD15" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE15" s="25"/>
+      <c r="AF15" s="2"/>
+      <c r="AG15" s="2"/>
+      <c r="AH15" s="2"/>
+    </row>
+    <row r="16" spans="11:38" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K16" s="2"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="O16" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="P16" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q16" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="R16" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="S16" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="T16" s="7"/>
-      <c r="X16" s="14"/>
-      <c r="Y16" s="5"/>
-      <c r="Z16" s="4"/>
-      <c r="AA16" s="4"/>
-      <c r="AB16" s="4"/>
-      <c r="AC16" s="4"/>
-      <c r="AD16" s="16"/>
-      <c r="AE16" s="21"/>
-    </row>
-    <row r="17" spans="13:31" x14ac:dyDescent="0.3">
-      <c r="M17" s="12"/>
-      <c r="N17" s="11"/>
-      <c r="O17" s="3"/>
-      <c r="P17" s="11"/>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="3"/>
-      <c r="S17" s="11"/>
-      <c r="T17" s="13"/>
-      <c r="X17" s="12"/>
-      <c r="Y17" s="11"/>
-      <c r="Z17" s="23"/>
-      <c r="AA17" s="23"/>
-      <c r="AB17" s="11"/>
-      <c r="AC17" s="11"/>
-      <c r="AD17" s="11"/>
-      <c r="AE17" s="24"/>
-    </row>
-    <row r="19" spans="13:31" x14ac:dyDescent="0.3">
-      <c r="M19" s="18"/>
-      <c r="N19" s="19"/>
-      <c r="O19" s="19"/>
-      <c r="P19" s="19"/>
-      <c r="Q19" s="19"/>
-      <c r="R19" s="19"/>
-      <c r="S19" s="19"/>
-      <c r="T19" s="20"/>
-      <c r="X19" s="18"/>
-      <c r="Y19" s="8"/>
-      <c r="Z19" s="19"/>
-      <c r="AA19" s="19"/>
-      <c r="AB19" s="19"/>
-      <c r="AC19" s="19"/>
-      <c r="AD19" s="8"/>
-      <c r="AE19" s="20"/>
-    </row>
-    <row r="20" spans="13:31" x14ac:dyDescent="0.3">
-      <c r="M20" s="14"/>
-      <c r="N20" s="17"/>
-      <c r="O20" s="4"/>
-      <c r="P20" s="4"/>
-      <c r="Q20" s="4"/>
-      <c r="R20" s="16" t="s">
+      <c r="T16" s="13"/>
+      <c r="U16" s="2"/>
+      <c r="V16" s="2"/>
+      <c r="W16" s="5"/>
+      <c r="X16" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y16" s="24"/>
+      <c r="Z16" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA16" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB16" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC16" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD16" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE16" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF16" s="2"/>
+      <c r="AG16" s="2"/>
+      <c r="AH16" s="2"/>
+    </row>
+    <row r="17" spans="11:34" ht="32.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K17" s="2"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="16"/>
+      <c r="O17" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="P17" s="16"/>
+      <c r="Q17" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="R17" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="S17" s="16"/>
+      <c r="T17" s="18"/>
+      <c r="U17" s="2"/>
+      <c r="V17" s="2"/>
+      <c r="W17" s="5"/>
+      <c r="X17" s="26"/>
+      <c r="Y17" s="27"/>
+      <c r="Z17" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA17" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB17" s="27"/>
+      <c r="AC17" s="27"/>
+      <c r="AD17" s="27"/>
+      <c r="AE17" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF17" s="2"/>
+      <c r="AG17" s="2"/>
+      <c r="AH17" s="2"/>
+    </row>
+    <row r="18" spans="11:34" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2"/>
+      <c r="T18" s="2"/>
+      <c r="U18" s="2"/>
+      <c r="V18" s="2"/>
+      <c r="W18" s="2"/>
+      <c r="X18" s="2"/>
+      <c r="Y18" s="2"/>
+      <c r="Z18" s="2"/>
+      <c r="AA18" s="2"/>
+      <c r="AB18" s="2"/>
+      <c r="AC18" s="2"/>
+      <c r="AD18" s="2"/>
+      <c r="AE18" s="2"/>
+      <c r="AF18" s="2"/>
+      <c r="AG18" s="2"/>
+      <c r="AH18" s="2"/>
+    </row>
+    <row r="19" spans="11:34" ht="32.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="K19" s="2"/>
+      <c r="L19" s="3">
+        <v>3</v>
+      </c>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2"/>
+      <c r="U19" s="2"/>
+      <c r="V19" s="2"/>
+      <c r="W19" s="3">
+        <v>4</v>
+      </c>
+      <c r="X19" s="2"/>
+      <c r="Y19" s="2"/>
+      <c r="Z19" s="2"/>
+      <c r="AA19" s="2"/>
+      <c r="AB19" s="2"/>
+      <c r="AC19" s="2"/>
+      <c r="AD19" s="2"/>
+      <c r="AE19" s="2"/>
+      <c r="AF19" s="2"/>
+      <c r="AG19" s="2"/>
+      <c r="AH19" s="2"/>
+    </row>
+    <row r="20" spans="11:34" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="N20" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="O20" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="P20" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q20" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="R20" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="S20" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="T20" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="U20" s="2"/>
+      <c r="V20" s="2"/>
+      <c r="W20" s="2"/>
+      <c r="X20" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y20" s="20"/>
+      <c r="Z20" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA20" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB20" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC20" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD20" s="20"/>
+      <c r="AE20" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF20" s="2"/>
+      <c r="AG20" s="2"/>
+      <c r="AH20" s="2"/>
+    </row>
+    <row r="21" spans="11:34" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="N21" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="O21" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="P21" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q21" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="R21" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="S20" s="5"/>
-      <c r="T20" s="21"/>
-      <c r="X20" s="14"/>
-      <c r="Y20" s="17"/>
-      <c r="Z20" s="4"/>
-      <c r="AA20" s="5"/>
-      <c r="AB20" s="5"/>
-      <c r="AC20" s="16"/>
-      <c r="AD20" s="4"/>
-      <c r="AE20" s="21"/>
-    </row>
-    <row r="21" spans="13:31" x14ac:dyDescent="0.3">
-      <c r="M21" s="14"/>
-      <c r="N21" s="4"/>
-      <c r="O21" s="5"/>
-      <c r="P21" s="5"/>
-      <c r="Q21" s="5"/>
-      <c r="R21" s="5"/>
-      <c r="S21" s="4"/>
-      <c r="T21" s="21"/>
-      <c r="X21" s="6"/>
-      <c r="Y21" s="4"/>
-      <c r="Z21" s="5"/>
-      <c r="AA21" s="4"/>
-      <c r="AB21" s="5"/>
-      <c r="AC21" s="5"/>
-      <c r="AD21" s="4"/>
-      <c r="AE21" s="7"/>
-    </row>
-    <row r="22" spans="13:31" x14ac:dyDescent="0.3">
-      <c r="M22" s="14"/>
-      <c r="N22" s="4"/>
-      <c r="O22" s="5"/>
-      <c r="P22" s="5"/>
-      <c r="Q22" s="4"/>
-      <c r="R22" s="4"/>
-      <c r="S22" s="5"/>
-      <c r="T22" s="21"/>
-      <c r="X22" s="6"/>
-      <c r="Y22" s="4"/>
-      <c r="Z22" s="4"/>
-      <c r="AA22" s="5"/>
-      <c r="AB22" s="4"/>
-      <c r="AC22" s="5"/>
-      <c r="AD22" s="4"/>
-      <c r="AE22" s="7"/>
-    </row>
-    <row r="23" spans="13:31" x14ac:dyDescent="0.3">
-      <c r="M23" s="6"/>
-      <c r="N23" s="4"/>
-      <c r="O23" s="4"/>
-      <c r="P23" s="4"/>
-      <c r="Q23" s="4"/>
-      <c r="R23" s="4"/>
-      <c r="S23" s="5"/>
-      <c r="T23" s="7"/>
-      <c r="X23" s="14"/>
-      <c r="Y23" s="5"/>
-      <c r="Z23" s="4"/>
-      <c r="AA23" s="4"/>
-      <c r="AB23" s="16" t="s">
+      <c r="S21" s="24"/>
+      <c r="T21" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="U21" s="2"/>
+      <c r="V21" s="2"/>
+      <c r="W21" s="2"/>
+      <c r="X21" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y21" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z21" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA21" s="24"/>
+      <c r="AB21" s="24"/>
+      <c r="AC21" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD21" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE21" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF21" s="2"/>
+      <c r="AG21" s="2"/>
+      <c r="AH21" s="2"/>
+    </row>
+    <row r="22" spans="11:34" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="N22" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="O22" s="24"/>
+      <c r="P22" s="24"/>
+      <c r="Q22" s="24"/>
+      <c r="R22" s="24"/>
+      <c r="S22" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="T22" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="U22" s="2"/>
+      <c r="V22" s="2"/>
+      <c r="W22" s="2"/>
+      <c r="X22" s="23"/>
+      <c r="Y22" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z22" s="24"/>
+      <c r="AA22" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB22" s="24"/>
+      <c r="AC22" s="24"/>
+      <c r="AD22" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE22" s="25"/>
+      <c r="AF22" s="2"/>
+      <c r="AG22" s="2"/>
+      <c r="AH22" s="2"/>
+    </row>
+    <row r="23" spans="11:34" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="N23" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="O23" s="24"/>
+      <c r="P23" s="24"/>
+      <c r="Q23" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="R23" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="S23" s="24"/>
+      <c r="T23" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="U23" s="2"/>
+      <c r="V23" s="2"/>
+      <c r="W23" s="2"/>
+      <c r="X23" s="23"/>
+      <c r="Y23" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z23" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA23" s="24"/>
+      <c r="AB23" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC23" s="24"/>
+      <c r="AD23" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE23" s="25"/>
+      <c r="AF23" s="2"/>
+      <c r="AG23" s="2"/>
+      <c r="AH23" s="2"/>
+    </row>
+    <row r="24" spans="11:34" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="23"/>
+      <c r="N24" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="O24" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="P24" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q24" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="R24" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="S24" s="24"/>
+      <c r="T24" s="25"/>
+      <c r="U24" s="2"/>
+      <c r="V24" s="2"/>
+      <c r="W24" s="2"/>
+      <c r="X24" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y24" s="24"/>
+      <c r="Z24" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA24" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB24" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="AC23" s="5"/>
-      <c r="AD23" s="4"/>
-      <c r="AE23" s="7"/>
-    </row>
-    <row r="24" spans="13:31" x14ac:dyDescent="0.3">
-      <c r="M24" s="14"/>
-      <c r="N24" s="5"/>
-      <c r="O24" s="5"/>
-      <c r="P24" s="4"/>
-      <c r="Q24" s="5"/>
-      <c r="R24" s="4"/>
-      <c r="S24" s="4"/>
-      <c r="T24" s="21"/>
-      <c r="X24" s="14"/>
-      <c r="Y24" s="4"/>
-      <c r="Z24" s="5"/>
-      <c r="AA24" s="5"/>
-      <c r="AB24" s="5"/>
-      <c r="AC24" s="5"/>
-      <c r="AD24" s="4"/>
-      <c r="AE24" s="21"/>
-    </row>
-    <row r="25" spans="13:31" x14ac:dyDescent="0.3">
-      <c r="M25" s="14"/>
-      <c r="N25" s="4"/>
-      <c r="O25" s="5"/>
-      <c r="P25" s="28"/>
-      <c r="Q25" s="5"/>
-      <c r="R25" s="4"/>
-      <c r="S25" s="25"/>
-      <c r="T25" s="21"/>
-      <c r="X25" s="6"/>
-      <c r="Y25" s="4"/>
-      <c r="Z25" s="4"/>
-      <c r="AA25" s="5"/>
-      <c r="AB25" s="4"/>
-      <c r="AC25" s="4"/>
-      <c r="AD25" s="16"/>
-      <c r="AE25" s="7"/>
-    </row>
-    <row r="26" spans="13:31" x14ac:dyDescent="0.3">
-      <c r="M26" s="22"/>
-      <c r="N26" s="26" t="s">
+      <c r="AC24" s="24"/>
+      <c r="AD24" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE24" s="25"/>
+      <c r="AF24" s="2"/>
+      <c r="AG24" s="2"/>
+      <c r="AH24" s="2"/>
+    </row>
+    <row r="25" spans="11:34" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="N25" s="24"/>
+      <c r="O25" s="24"/>
+      <c r="P25" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q25" s="24"/>
+      <c r="R25" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="S25" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="T25" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="U25" s="2"/>
+      <c r="V25" s="2"/>
+      <c r="W25" s="2"/>
+      <c r="X25" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y25" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z25" s="24"/>
+      <c r="AA25" s="24"/>
+      <c r="AB25" s="24"/>
+      <c r="AC25" s="24"/>
+      <c r="AD25" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE25" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF25" s="2"/>
+      <c r="AG25" s="2"/>
+      <c r="AH25" s="2"/>
+    </row>
+    <row r="26" spans="11:34" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="N26" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="O26" s="24"/>
+      <c r="P26" s="31"/>
+      <c r="Q26" s="24"/>
+      <c r="R26" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="S26" s="32"/>
+      <c r="T26" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="U26" s="2"/>
+      <c r="V26" s="2"/>
+      <c r="W26" s="2"/>
+      <c r="X26" s="23"/>
+      <c r="Y26" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z26" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA26" s="24"/>
+      <c r="AB26" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC26" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD26" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE26" s="25"/>
+      <c r="AF26" s="2"/>
+      <c r="AG26" s="2"/>
+      <c r="AH26" s="2"/>
+    </row>
+    <row r="27" spans="11:34" ht="32.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="N27" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="O26" s="23"/>
-      <c r="P26" s="23"/>
-      <c r="Q26" s="23"/>
-      <c r="R26" s="23"/>
-      <c r="S26" s="23"/>
-      <c r="T26" s="13"/>
-      <c r="X26" s="12"/>
-      <c r="Y26" s="27"/>
-      <c r="Z26" s="23"/>
-      <c r="AA26" s="23"/>
-      <c r="AB26" s="23"/>
-      <c r="AC26" s="11"/>
-      <c r="AD26" s="26" t="s">
+      <c r="O27" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="P27" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q27" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="R27" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="S27" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="T27" s="34"/>
+      <c r="U27" s="2"/>
+      <c r="V27" s="2"/>
+      <c r="W27" s="2"/>
+      <c r="X27" s="26"/>
+      <c r="Y27" s="36"/>
+      <c r="Z27" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA27" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB27" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC27" s="27"/>
+      <c r="AD27" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="AE26" s="24"/>
+      <c r="AE27" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF27" s="2"/>
+      <c r="AG27" s="2"/>
+      <c r="AH27" s="2"/>
+    </row>
+    <row r="28" spans="11:34" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="2"/>
+      <c r="R28" s="2"/>
+      <c r="S28" s="2"/>
+      <c r="T28" s="2"/>
+      <c r="U28" s="2"/>
+      <c r="V28" s="2"/>
+      <c r="W28" s="2"/>
+      <c r="X28" s="2"/>
+      <c r="Y28" s="2"/>
+      <c r="Z28" s="2"/>
+      <c r="AA28" s="2"/>
+      <c r="AB28" s="2"/>
+      <c r="AC28" s="2"/>
+      <c r="AD28" s="2"/>
+      <c r="AE28" s="2"/>
+      <c r="AF28" s="2"/>
+      <c r="AG28" s="2"/>
+      <c r="AH28" s="2"/>
+    </row>
+    <row r="29" spans="11:34" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
